--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/en/NewsPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/en/NewsPages.xlsx
@@ -85,9 +85,6 @@
 Curabitur ullamcorper ultricies nisi.</t>
   </si>
   <si>
-    <t>News</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>DynamiteImageDescription</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,40 +549,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -609,10 +609,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>

--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/en/NewsPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/en/NewsPages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>HR</t>
+  </si>
+  <si>
+    <t>DynamiteOccurrenceLinkLocation</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -199,6 +205,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,21 +528,21 @@
     <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="21" width="15" style="3"/>
-    <col min="22" max="22" width="15" style="1"/>
-    <col min="23" max="23" width="15" style="3"/>
-    <col min="24" max="24" width="15" style="1"/>
-    <col min="25" max="26" width="15" style="3"/>
+    <col min="10" max="11" width="27.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="22" width="15" style="3"/>
+    <col min="23" max="23" width="15" style="1"/>
+    <col min="24" max="24" width="15" style="3"/>
+    <col min="25" max="25" width="15" style="1"/>
+    <col min="26" max="27" width="15" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,25 +573,27 @@
       <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -594,8 +603,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,17 +636,20 @@
       <c r="J2" s="1">
         <v>41936</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q2"/>
       <c r="R2"/>
-      <c r="T2"/>
-      <c r="Z2"/>
-      <c r="AB2" s="3"/>
+      <c r="S2"/>
+      <c r="U2"/>
+      <c r="AA2"/>
+      <c r="AC2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/en/NewsPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/en/NewsPages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -37,32 +37,6 @@
   </si>
   <si>
     <t>News Item</t>
-  </si>
-  <si>
-    <t>News 1</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing 
-elit. Aenean commodo ligula eget dolor. Aenean massa 
-&lt;strong&gt;strong&lt;/strong&gt;. Cum sociis natoque penatibus 
-et magnis dis parturient montes, nascetur ridiculus 
-mus. Donec quam felis, ultricies nec, pellentesque 
-eu, pretium quis, sem. Nulla consequat massa quis 
-enim. Donec pede justo, fringilla vel, aliquet nec, 
-vulputate eget, arcu. In enim justo, rhoncus ut, 
-imperdiet a, venenatis vitae, justo. Nullam dictum 
-felis eu pede &lt;a class="external ext" href="#"&gt;link&lt;/a&gt; 
-mollis pretium. Integer tincidunt. Cras dapibus. 
-Vivamus elementum semper nisi. Aenean vulputate 
-eleifend tellus. Aenean leo ligula, porttitor eu, 
-consequat vitae, eleifend ac, enim. Aliquam lorem ante, 
-dapibus in, viverra quis, feugiat a, tellus. Phasellus 
-viverra nulla ut metus varius laoreet. Quisque rutrum. 
-Aenean imperdiet. Etiam ultricies nisi vel augue. 
-Curabitur ullamcorper ultricies nisi.</t>
-  </si>
-  <si>
-    <t>&lt;img alt="" src="/SiteCollectionImages/PR.gif" style="BORDER: 0px solid; "&gt;</t>
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetuer adipiscing 
@@ -91,28 +65,6 @@
     <t>ApprovalStatus</t>
   </si>
   <si>
-    <t>&lt;h1&gt;HTML Ipsum Presents&lt;/h1&gt;
-&lt;p&gt;&lt;strong&gt;Pellentesque habitant morbi tristique&lt;/strong&gt; senectus et netus et malesuada fames ac turpis egestas. Vestibulum tortor quam, feugiat vitae, ultricies eget, tempor sit amet, ante. Donec eu libero sit amet quam egestas semper. &lt;em&gt;Aenean ultricies mi vitae est.&lt;/em&gt; Mauris placerat eleifend leo. Quisque sit amet est et sapien ullamcorper pharetra. Vestibulum erat wisi, condimentum sed, &lt;code&gt;commodo vitae&lt;/code&gt;, ornare sit amet, wisi. Aenean fermentum, elit eget tincidunt condimentum, eros ipsum rutrum orci, sagittis tempus lacus enim ac dui. &lt;a href="#"&gt;Donec non enim&lt;/a&gt; in turpis pulvinar facilisis. Ut felis.&lt;/p&gt;
-&lt;h2&gt;Header Level 2&lt;/h2&gt;
-&lt;ol&gt;
-   &lt;li&gt;Lorem ipsum dolor sit amet, consectetuer adipiscing elit.&lt;/li&gt;
-   &lt;li&gt;Aliquam tincidunt mauris eu risus.&lt;/li&gt;
-&lt;/ol&gt;
-&lt;blockquote&gt;&lt;p&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Vivamus magna. Cras in mi at felis aliquet congue. Ut a est eget ligula molestie gravida. Curabitur massa. Donec eleifend, libero at sagittis mollis, tellus est malesuada tellus, at luctus turpis elit sit amet quam. Vivamus pretium ornare est.&lt;/p&gt;&lt;/blockquote&gt;
-&lt;h3&gt;Header Level 3&lt;/h3&gt;
-&lt;ul&gt;
-   &lt;li&gt;Lorem ipsum dolor sit amet, consectetuer adipiscing elit.&lt;/li&gt;
-   &lt;li&gt;Aliquam tincidunt mauris eu risus.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;pre&gt;&lt;code&gt;
-#header h1 a { 
- display: block; 
- width: 300px; 
- height: 80px; 
-}
-&lt;/code&gt;&lt;/pre&gt;</t>
-  </si>
-  <si>
     <t>Created By</t>
   </si>
   <si>
@@ -153,6 +105,256 @@
   </si>
   <si>
     <t>Main Menu</t>
+  </si>
+  <si>
+    <t>2_.000</t>
+  </si>
+  <si>
+    <t>3_.000</t>
+  </si>
+  <si>
+    <t>4_.000</t>
+  </si>
+  <si>
+    <t>5_.000</t>
+  </si>
+  <si>
+    <t>6_.000</t>
+  </si>
+  <si>
+    <t>7_.000</t>
+  </si>
+  <si>
+    <t>8_.000</t>
+  </si>
+  <si>
+    <t>9_.000</t>
+  </si>
+  <si>
+    <t>10_.000</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image1.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image3.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image2.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image4.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image5.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image6.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image7.jpgf" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image8.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image9.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image10.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>11_.000</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>&lt;img alt="" src="/SiteCollectionImages/Image11.jpg" style="BORDER: 0px solid; "&gt;</t>
+  </si>
+  <si>
+    <t>Ham is a processed pork foodstuff,[1] which undergoes preservation through curing, smoking, or salting. Ham was traditionally made only from the hind leg of swine, and referred to that specific cut of pork.[2] Ham is made around the world, including a number of regional specialties, although the term now has wider usage and can also be used to refer to meat which has been through a process of re-forming.
+The precise nature of meat termed "ham" is controlled, often by statute, in a number of areas, including the United States and European Union, meaning that only products meeting a certain set of criteria can be called ham. In addition, there are numerous ham products which have specific geographical naming protection, such as Prosciutto di Parma and Prosciutto Toscano PDO in Europe, and Smithfield ham in the US.</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Image Very Rule Made&lt;/h1&gt;
+&lt;h2&gt;Unto Created Seas Fly Waters So&lt;/h2&gt;
+&lt;p&gt;Is form two. Let. Fly from. Form &lt;em&gt;forth&lt;/em&gt; creepeth life winged you years you heaven Third evening bring.&lt;/p&gt;
+&lt;p&gt;Female dominion midst, very dominion isn&amp;#39;t make. Give fly rule beast. Gathered him. Stars tree. Whose image fruit. Fourth you.&lt;/p&gt;
+&lt;h2&gt;Replenish Form Saying&lt;/h2&gt;
+&lt;p&gt;That created had one moveth thing meat land rule.&lt;/p&gt;
+&lt;h2&gt;Sea&lt;/h2&gt;
+&lt;p&gt;Fowl. God subdue above in deep &lt;strong&gt;was&lt;/strong&gt; replenish spirit one &lt;strong&gt;from&lt;/strong&gt; creeping grass very, the and.&lt;/p&gt;
+&lt;p&gt;Fruitful seed. Divide, fish. Seas land Land so beast was. Without bearing place. Day. Forth &lt;strong&gt;their&lt;/strong&gt; unto said saw whose.&lt;/p&gt;
+&lt;p&gt;Greater void rule. Hath good is lights moving gathered yielding years. All whose, &lt;em&gt;multiply&lt;/em&gt; that him over.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Image Very Rule Made</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Over&lt;/h1&gt;
+&lt;p&gt;Very herb a female. Herb set tree thing a without unto. All.&lt;/p&gt;
+&lt;h2&gt;Day Be Brought Is&lt;/h2&gt;
+&lt;p&gt;Whales. Great divide living it third fruitful a saw morning, have.&lt;/p&gt;
+&lt;p&gt;Years from very night fourth seasons waters them second multiply. Which thing over whales winged blessed tree him said fly. That air.&lt;/p&gt;
+&lt;p&gt;She&amp;#39;d beginning. &lt;strong&gt;Day&lt;/strong&gt; he fourth. Together unto gathering they&amp;#39;re in it.&lt;/p&gt;
+&lt;h2&gt;That Face Void Bring Their&lt;/h2&gt;
+&lt;p&gt;She&amp;#39;d may. &lt;em&gt;Behold&lt;/em&gt; form &lt;em&gt;years&lt;/em&gt; fifth creepeth lights creature. Our so herb that saying fill fifth is had saw first good beginning You&amp;#39;ll. She&amp;#39;d whales.&lt;/p&gt;
+&lt;h2&gt;All Them Replenish Own May&lt;/h2&gt;
+&lt;p&gt;Creepeth unto had. Appear us Seas winged fruitful void two. &lt;em&gt;Earth&lt;/em&gt; &lt;em&gt;all&lt;/em&gt; fish. Two stars without signs lesser that.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Creepeth Second Firmament One&lt;/h1&gt;
+&lt;h2&gt;Appear Sea Grass Dominion Wherein Dry Own&lt;/h2&gt;
+&lt;p&gt;A. Very. She&amp;#39;d beginning fruit itself divide, wherein given.&lt;/p&gt;
+&lt;h2&gt;Creeping Herb So There Shall Set&lt;/h2&gt;
+&lt;p&gt;Beast every his fruitful gathered form darkness had. Moved under given after, doesn&amp;#39;t firmament.&lt;/p&gt;
+&lt;p&gt;You seas for. Which us good together all yielding earth.&lt;/p&gt;
+&lt;p&gt;Saw you&amp;#39;re &lt;em&gt;dry&lt;/em&gt; fowl forth isn&amp;#39;t fifth after two meat fruit divide &lt;strong&gt;moving&lt;/strong&gt; from &lt;em&gt;moved&lt;/em&gt; whose likeness, man every thing abundantly greater rule open dominion living.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Doesn&amp;#39;t&lt;/strong&gt; have grass us dominion his days. Fruitful which his the yielding and meat living night great open.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Kind&lt;/em&gt; air fruitful land image. Created saw saw you fruit lights be they&amp;#39;re place. Subdue cattle gathered i own morning &lt;em&gt;heaven&lt;/em&gt; &lt;strong&gt;male&lt;/strong&gt; give.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Creepeth Second Firmament One</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Spirit Moved&lt;/h1&gt;
+&lt;h2&gt;His Lights And Subdue Evening Earth Fill&lt;/h2&gt;
+&lt;p&gt;First sea don&amp;#39;t. Called you&amp;#39;ll midst two second divided years years saying. Earth morning.&lt;/p&gt;
+&lt;p&gt;Were. A air make day meat there beast moved earth creature.&lt;/p&gt;
+&lt;p&gt;Set. Fifth fish seed. You&amp;#39;ll. Appear face doesn&amp;#39;t was lights. Whose doesn&amp;#39;t light it be yielding deep &lt;em&gt;moved&lt;/em&gt; &lt;em&gt;lights&lt;/em&gt; isn&amp;#39;t there days every appear for divided.&lt;/p&gt;
+&lt;p&gt;For fill set. &lt;em&gt;Deep&lt;/em&gt; can&amp;#39;t. Moved beginning replenish whose. Herb of Night. All unto air. Years yielding firmament lesser. &lt;strong&gt;Us&lt;/strong&gt; forth darkness. Creature, hath be.&lt;/p&gt;
+&lt;p&gt;Don&amp;#39;t was Over said good won&amp;#39;t set fourth evening a living.&lt;/p&gt;
+&lt;p&gt;You&amp;#39;re gathering years Air. To whales their fifth. Bearing won&amp;#39;t let void may.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Spirit Moved</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Moved First His Night&lt;/h1&gt;
+&lt;p&gt;Dominion thing air Whose lesser them, unto said said greater. Don&amp;#39;t. Life behold they&amp;#39;re fly, which behold every he &lt;em&gt;god&lt;/em&gt; make second.&lt;/p&gt;
+&lt;p&gt;Fly good sixth. Days place moveth very Don&amp;#39;t can&amp;#39;t, it sixth replenish him his so shall seasons first us he fish. Make.&lt;/p&gt;
+&lt;h2&gt;Evening Waters Have Fly&lt;/h2&gt;
+&lt;p&gt;He meat the dominion replenish which face is form lesser day evening moved sixth you&amp;#39;ll land moving have isn&amp;#39;t god god in.&lt;/p&gt;
+&lt;p&gt;Shall them give, dry fruitful. They&amp;#39;re saying you&amp;#39;ll give &lt;em&gt;creepeth&lt;/em&gt; void.&lt;/p&gt;
+&lt;p&gt;Man form, is also. For appear open two rule him after also shall the. Seed their let.&lt;/p&gt;
+&lt;p&gt;Hath. And cattle it image you&amp;#39;re.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Moved First His Night</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Said He Cattle And Darkness Fifth Rule From&lt;/h1&gt;
+&lt;p&gt;Which was there every life &lt;strong&gt;multiply&lt;/strong&gt; seas. Dry very is, appear a sea.&lt;/p&gt;
+&lt;p&gt;Male, a isn&amp;#39;t creeping god &lt;em&gt;of&lt;/em&gt; and unto every make set so open moveth them saw. After fruit.&lt;/p&gt;
+&lt;p&gt;Female in. Won&amp;#39;t hath isn&amp;#39;t. Whose, may, whales divide saying fowl behold one lesser under fowl winged third.&lt;/p&gt;
+&lt;p&gt;One. Moving creeping appear upon replenish spirit air gathering seed rule man fruit night days fowl bring shall can&amp;#39;t wherein moving earth spirit land created.&lt;/p&gt;
+&lt;h2&gt;Yielding It&lt;/h2&gt;
+&lt;p&gt;Brought. Which sixth lesser &lt;em&gt;man&lt;/em&gt; wherein, divided divided grass beast make. Land that.&lt;/p&gt;
+&lt;h2&gt;Bring Sixth Fly Deep&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Abundantly&lt;/strong&gt; unto herb sixth one subdue place fish good heaven and multiply saw.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Said He Cattle And Darkness Fifth Rule From</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;One All Moveth Hath&lt;/h1&gt;
+&lt;h2&gt;God She&amp;#39;d May Dominion Don&amp;#39;t Days&lt;/h2&gt;
+&lt;p&gt;In, living Gathering moved divided lesser appear &lt;strong&gt;void&lt;/strong&gt; sea image have.&lt;/p&gt;
+&lt;p&gt;Said void sixth living whose, so them earth &lt;strong&gt;together&lt;/strong&gt; beast. Spirit may. Unto evening greater you&amp;#39;ll Sea first.&lt;/p&gt;
+&lt;p&gt;Hath. First kind subdue spirit whose two face forth day and seas our. &lt;em&gt;Face&lt;/em&gt; he fifth be fowl created blessed moveth years make abundantly.&lt;/p&gt;
+&lt;p&gt;Blessed. Creature, place creature every. Is good, meat together &lt;strong&gt;fourth&lt;/strong&gt; greater.&lt;/p&gt;
+&lt;p&gt;Of land forth spirit. Green and first god. Moved years subdue beginning above. Rule.&lt;/p&gt;
+&lt;p&gt;Image. Subdue first creature gathering evening created spirit night them the may kind divided meat, yielding living yielding greater life the, after.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>One All Moveth Hath</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;And Evening Land Sea Every&lt;/h1&gt;
+&lt;h2&gt;Two Cattle Evening Is Two&lt;/h2&gt;
+&lt;p&gt;Fifth blessed. Creeping kind our replenish. Moved, of darkness for deep it.&lt;/p&gt;
+&lt;h2&gt;Years After Beginning Gathering Seasons First It Fly&lt;/h2&gt;
+&lt;p&gt;He tree. Itself was &lt;strong&gt;brought&lt;/strong&gt; from him darkness great without god &lt;strong&gt;meat&lt;/strong&gt; make us.&lt;/p&gt;
+&lt;p&gt;Can&amp;#39;t moving The sea there, &lt;strong&gt;face&lt;/strong&gt; rule living. Let darkness. Night fruitful days dominion can&amp;#39;t. Light gathering female waters &lt;em&gt;may&lt;/em&gt; image &lt;em&gt;form&lt;/em&gt; day.&lt;/p&gt;
+&lt;p&gt;He &lt;strong&gt;god&lt;/strong&gt; days subdue multiply creeping spirit, night i signs may. Us night every image fowl be.&lt;/p&gt;
+&lt;p&gt;Heaven dominion which can&amp;#39;t kind have. So great Beast seas lights, under day Behold god.&lt;/p&gt;
+&lt;h2&gt;He Be Shall Under Said&lt;/h2&gt;
+&lt;p&gt;Stars &lt;em&gt;had&lt;/em&gt; two sixth may lesser days, rule open open image open won&amp;#39;t multiply fruit first may evening. Fruit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>And Evening Land Sea Every</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Green Cattle Herb Evening Beast So&lt;/h1&gt;
+&lt;p&gt;Good &lt;em&gt;give&lt;/em&gt; subdue, female. Had also rule seed. Appear. Life created face likeness cattle shall after i a gathered the.&lt;/p&gt;
+&lt;h2&gt;In From Abundantly Evening Were&lt;/h2&gt;
+&lt;p&gt;Cattle days, is. Whales winged form saying dry open don&amp;#39;t i light created wherein signs second us to i days female don&amp;#39;t.&lt;/p&gt;
+&lt;p&gt;Creature so face. Herb, stars, saw it saying, dominion second tree very one saying night a second, she&amp;#39;d &lt;em&gt;creeping&lt;/em&gt; be have grass every.&lt;/p&gt;
+&lt;h2&gt;Us&lt;/h2&gt;
+&lt;p&gt;Life multiply fill moved and Moving creepeth creature dominion firmament creepeth.&lt;/p&gt;
+&lt;h2&gt;Upon Also Unto Whose You Very&lt;/h2&gt;
+&lt;p&gt;Form bring together fruit. Yielding &lt;em&gt;great&lt;/em&gt; replenish of Winged creeping fruit us.&lt;/p&gt;
+&lt;h2&gt;Evening The Saw Blessed Tree&lt;/h2&gt;
+&lt;p&gt;Make beginning fly two seasons fowl. &lt;em&gt;Appear&lt;/em&gt; creeping spirit. Midst man may.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Green Cattle Herb Evening Beast So</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Created Life Deep From Meat Moving Subdue Greater&lt;/h1&gt;
+&lt;h2&gt;Fill Shall Wherein&lt;/h2&gt;
+&lt;p&gt;Morning. Heaven were. Our fruitful be creeping &lt;strong&gt;great&lt;/strong&gt; very his. Said tree &lt;em&gt;very&lt;/em&gt; fourth. Doesn&amp;#39;t sixth he fowl light. Their yielding.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;First&lt;/em&gt; deep he. Form sea place. Replenish god moving itself greater. Fourth living great winged can&amp;#39;t.&lt;/p&gt;
+&lt;h2&gt;Man Fruitful Lights Heaven&lt;/h2&gt;
+&lt;p&gt;Tree In waters one. Creeping together, whales moved.&lt;/p&gt;
+&lt;p&gt;Midst. Forth life. They&amp;#39;re beginning subdue give evening form there. You&amp;#39;re signs they&amp;#39;re good darkness second, days over.&lt;/p&gt;
+&lt;h2&gt;Saying One Morning It Were Whales&lt;/h2&gt;
+&lt;p&gt;Was isn&amp;#39;t all gathering fifth morning tree had signs. Moving. Face, &lt;strong&gt;blessed&lt;/strong&gt; evening thing heaven, a gathered. Gathering he.&lt;/p&gt;
+&lt;h2&gt;Whales Midst Fifth Set Divided May Two Stars&lt;/h2&gt;
+&lt;p&gt;Very stars third second brought likeness make. Which seasons first created their make in is won&amp;#39;t Very. Fruitful.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Created Life Deep From Meat Moving Subdue Greater</t>
+  </si>
+  <si>
+    <t>Years from very night fourth seasons waters them second multiply. Which thing over whales winged blessed tree him said fly. That air.</t>
+  </si>
+  <si>
+    <t>Is form two. Let. Fly from. Form &lt;em&gt;forth&lt;/em&gt; creepeth life winged you years you heaven Third evening bring,</t>
+  </si>
+  <si>
+    <t>Beast every his fruitful gathered form darkness had. Moved under given after, doesn&amp;#39;t firmament.</t>
+  </si>
+  <si>
+    <t>Were. A air make day meat there beast moved earth creature.</t>
+  </si>
+  <si>
+    <t>Fly good sixth. Days place moveth very Don&amp;#39;t can&amp;#39;t, it sixth replenish him his so shall seasons first us he fish. Make.</t>
+  </si>
+  <si>
+    <t>One. Moving creeping appear upon replenish spirit air gathering seed rule man fruit night days fowl bring shall can&amp;#39;t wherein moving earth spirit land created.</t>
+  </si>
+  <si>
+    <t>Hath. First kind subdue spirit whose two face forth day and seas our. &lt;em&gt;Face&lt;/em&gt; he fifth be fowl created blessed moveth years make abundantly.</t>
+  </si>
+  <si>
+    <t>Years After Beginning Gathering Seasons First It Fly</t>
+  </si>
+  <si>
+    <t>Creature so face. Herb, stars, saw it saying, dominion second tree very one saying night a second, she&amp;#39;d &lt;em&gt;creeping&lt;/em&gt; be have grass every.</t>
+  </si>
+  <si>
+    <t>Tree In waters one. Creeping together, whales moved.</t>
+  </si>
+  <si>
+    <t>Ham is made around the world, including a number of regional specialties, although the term now has wider usage and can also be used to refer to meat which has been through a process of re-forming.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,6 +408,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +731,7 @@
     <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="93.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="27.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
@@ -556,43 +761,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -616,34 +821,34 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1">
         <v>41936</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L2" s="5">
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
@@ -651,6 +856,466 @@
       <c r="AA2"/>
       <c r="AC2" s="3"/>
     </row>
+    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="U3"/>
+      <c r="AA3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="U4"/>
+      <c r="AA4"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="U5"/>
+      <c r="AA5"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="U6"/>
+      <c r="AA6"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="U7"/>
+      <c r="AA7"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="U8"/>
+      <c r="AA8"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="U9"/>
+      <c r="AA9"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="U10"/>
+      <c r="AA10"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="U11"/>
+      <c r="AA11"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1">
+        <v>41936</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="U12"/>
+      <c r="AA12"/>
+      <c r="AC12" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
